--- a/paper/results-with-rag.xlsx
+++ b/paper/results-with-rag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/workspace/personal/deeplearning-course/tcc/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AD6BEC7B-4100-674F-A9E9-AC34A29247B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5F8014FD-6FB3-8D45-BE0D-25835557EE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{A8D029AD-3F3B-5A40-A826-F25F89ACC924}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Small LLMs Average</t>
+  </si>
+  <si>
+    <t>Accuracy increase</t>
   </si>
 </sst>
 </file>
@@ -517,9 +520,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -562,7 +566,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -571,51 +575,54 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="25" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="33" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="37" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="41" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="22" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="26" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="30" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="34" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="38" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="42" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="27" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="31" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="35" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="39" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="43" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="24" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="28" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="32" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="36" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="40" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="9" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="13" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="15" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="18" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="8" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="4" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="5" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="6" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="7" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="11" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="14" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="10" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="17" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="12" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Title" xfId="3" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="19" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="16" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -930,14 +937,15 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -950,6 +958,9 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -961,6 +972,10 @@
       <c r="C2" s="2">
         <v>0.3</v>
       </c>
+      <c r="D2" s="9">
+        <f t="shared" ref="D2:D11" si="0">(C2/B2)-1</f>
+        <v>1.9375000000000022</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -972,6 +987,10 @@
       <c r="C3" s="4">
         <v>0.35510204081632601</v>
       </c>
+      <c r="D3" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000084</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -983,6 +1002,10 @@
       <c r="C4" s="4">
         <v>0.35714285714285698</v>
       </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>0.65094339622642128</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -994,6 +1017,10 @@
       <c r="C5" s="4">
         <v>0.393877551020408</v>
       </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.49612403100775704</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -1005,6 +1032,10 @@
       <c r="C6" s="4">
         <v>0.420408163265306</v>
       </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.13807531380753113</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1016,6 +1047,10 @@
       <c r="C7" s="4">
         <v>0.424489795918367</v>
       </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.80869565217391459</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -1027,6 +1062,10 @@
       <c r="C8" s="4">
         <v>0.43265306122448899</v>
       </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.22543352601155808</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1038,6 +1077,10 @@
       <c r="C9" s="4">
         <v>0.48979591836734598</v>
       </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.56862745098039258</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1049,6 +1092,10 @@
       <c r="C10" s="4">
         <v>0.67142857142857104</v>
       </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>8.5808580858085959E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -1062,9 +1109,9 @@
         <f>SUM(C2:C10)/COUNT(C2:C10)</f>
         <v>0.42721088435374122</v>
       </c>
-      <c r="D11">
-        <f>C11/B11</f>
-        <v>1.4207688851806703</v>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.42076888518067035</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1076,6 +1123,10 @@
       </c>
       <c r="C12" s="4">
         <v>0.46938775510204001</v>
+      </c>
+      <c r="D12" s="9">
+        <f>(C12/B12)-1</f>
+        <v>-0.21232876712328808</v>
       </c>
     </row>
   </sheetData>
